--- a/newwisedata/testssh_ans/mcmc6.xlsx
+++ b/newwisedata/testssh_ans/mcmc6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>eta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pv_wise</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pv</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pv_wise</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dup</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ddown</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>D_wise</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>D_wiseErr</t>
         </is>
@@ -490,27 +500,33 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>192.63</v>
+      </c>
+      <c r="H2" t="n">
         <v>192.6</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>192.9</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>192.4</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>193</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -524,27 +540,33 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.6</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
-      </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>139.61</v>
+      </c>
+      <c r="H3" t="n">
         <v>139.6</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>140.4</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>138.9</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>208</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,27 +580,33 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>190.35</v>
+      </c>
+      <c r="H4" t="n">
         <v>190.3</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>190.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>190.2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>143</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -592,27 +620,33 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>130</v>
+      </c>
+      <c r="D5" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
-      </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>309.33</v>
+      </c>
+      <c r="H5" t="n">
         <v>309.3</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>309.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>309.2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>390</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130</v>
       </c>
     </row>
@@ -626,27 +660,33 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
         <v>4.97</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
-      </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>150.56</v>
+      </c>
+      <c r="H6" t="n">
         <v>150.6</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>151.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>150.1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>111</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>18</v>
       </c>
     </row>
@@ -660,27 +700,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="E7" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.057</v>
       </c>
       <c r="G7" t="n">
-        <v>600</v>
+        <v>1739.43</v>
       </c>
       <c r="H7" t="n">
-        <v>600</v>
+        <v>1739.4</v>
       </c>
       <c r="I7" t="n">
+        <v>1763.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1715</v>
+      </c>
+      <c r="K7" t="n">
         <v>2938</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>470</v>
       </c>
     </row>
@@ -694,27 +740,33 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>46</v>
+      </c>
+      <c r="D8" t="n">
         <v>4.99</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.01</v>
-      </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>413.51</v>
+      </c>
+      <c r="H8" t="n">
         <v>413.5</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>414.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>413</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>352</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>14</v>
       </c>
     </row>
@@ -728,27 +780,33 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.18</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.06</v>
-      </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>175.45</v>
+      </c>
+      <c r="H9" t="n">
         <v>175.4</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>179.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>171.7</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>242</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,27 +820,33 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.01</v>
-      </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>366.31</v>
+      </c>
+      <c r="H10" t="n">
         <v>366.3</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>366.8</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>365.9</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>254</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -796,27 +860,33 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>32</v>
+      </c>
+      <c r="D11" t="n">
         <v>4.69</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.02</v>
-      </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>399.47</v>
+      </c>
+      <c r="H11" t="n">
         <v>399.5</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>403.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>395.4</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>382</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>132</v>
       </c>
     </row>
@@ -830,27 +900,33 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.98</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.41</v>
-      </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>108.67</v>
+      </c>
+      <c r="H12" t="n">
         <v>108.7</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>109.8</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>107.5</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>315</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -864,27 +940,33 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
         <v>2.12</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.03</v>
-      </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>384.77</v>
+      </c>
+      <c r="H13" t="n">
         <v>384.8</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>390.2</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>379.4</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>628</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>17</v>
       </c>
     </row>
@@ -898,27 +980,33 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>148</v>
+      </c>
+      <c r="D14" t="n">
         <v>5</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.09</v>
-      </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>143.41</v>
+      </c>
+      <c r="H14" t="n">
         <v>143.4</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>143.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>143.3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>97</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>16</v>
       </c>
     </row>
@@ -932,27 +1020,33 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.93</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.14</v>
-      </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>152.86</v>
+      </c>
+      <c r="H15" t="n">
         <v>152.9</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>154.1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>151.6</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>402</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -966,27 +1060,33 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>41</v>
+      </c>
+      <c r="D16" t="n">
         <v>4.99</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.09</v>
-      </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>216.66</v>
+      </c>
+      <c r="H16" t="n">
         <v>216.7</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>217</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>216.4</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>200</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1000,27 +1100,33 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>32</v>
+      </c>
+      <c r="D17" t="n">
         <v>4.9</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>161.93</v>
+      </c>
+      <c r="H17" t="n">
         <v>161.9</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>163.4</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>161</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>180</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1034,27 +1140,33 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
         <v>4.98</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.06</v>
-      </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>264.42</v>
+      </c>
+      <c r="H18" t="n">
         <v>264.4</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>265.1</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>263.9</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>203</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1068,27 +1180,33 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
         <v>4.97</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.02</v>
-      </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>464.85</v>
+      </c>
+      <c r="H19" t="n">
         <v>464.9</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>467</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>463.5</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>352</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1102,27 +1220,33 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" t="n">
         <v>4.97</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.1</v>
-      </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>79.97</v>
+      </c>
+      <c r="H20" t="n">
         <v>80</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>80.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>79.8</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>64</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1136,27 +1260,33 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" t="n">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.04</v>
-      </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>220.15</v>
+      </c>
+      <c r="H21" t="n">
         <v>220.2</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>220.5</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>219.8</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>140</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1170,27 +1300,33 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" t="n">
         <v>5</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.2</v>
-      </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>155.87</v>
+      </c>
+      <c r="H22" t="n">
         <v>155.9</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>156.1</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>155.6</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>214</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1204,27 +1340,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="E23" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>600</v>
+        <v>1432.9</v>
       </c>
       <c r="H23" t="n">
-        <v>599.9</v>
+        <v>1432.9</v>
       </c>
       <c r="I23" t="n">
+        <v>1452.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1413.3</v>
+      </c>
+      <c r="K23" t="n">
         <v>2877</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>207</v>
       </c>
     </row>
@@ -1238,27 +1380,33 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
         <v>4.98</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>105.76</v>
+      </c>
+      <c r="H24" t="n">
         <v>105.8</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>106.1</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>105.4</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>87</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1272,27 +1420,33 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>32</v>
+      </c>
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.13</v>
-      </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>133.43</v>
+      </c>
+      <c r="H25" t="n">
         <v>133.4</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>133.6</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>133.3</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>102</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1306,27 +1460,33 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.04</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.01</v>
-      </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>599.95</v>
+      </c>
+      <c r="H26" t="n">
         <v>600</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>600.1</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>599.9</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>212</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1340,27 +1500,33 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
         <v>4.91</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.16</v>
-      </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>125.32</v>
+      </c>
+      <c r="H27" t="n">
         <v>125.3</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>126.6</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>124.6</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>101</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1374,27 +1540,33 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" t="n">
         <v>4.99</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.02</v>
-      </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>307.22</v>
+      </c>
+      <c r="H28" t="n">
         <v>307.2</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>307.7</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>306.8</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>193</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1408,27 +1580,33 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" t="n">
         <v>4.95</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.03</v>
-      </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>244.69</v>
+      </c>
+      <c r="H29" t="n">
         <v>244.7</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>246.1</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>243.8</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>236</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1442,27 +1620,33 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>14</v>
+      </c>
+      <c r="D30" t="n">
         <v>4.96</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.03</v>
-      </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>218.05</v>
+      </c>
+      <c r="H30" t="n">
         <v>218</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>219.2</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>217.4</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>153</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1476,27 +1660,33 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>17</v>
+      </c>
+      <c r="D31" t="n">
         <v>5</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.02</v>
-      </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>277.87</v>
+      </c>
+      <c r="H31" t="n">
         <v>277.9</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>278.3</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>277.4</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>234</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1510,27 +1700,33 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>13</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.02</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
-        <v>599.9</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0.057</v>
       </c>
       <c r="G32" t="n">
-        <v>600</v>
+        <v>599.95</v>
       </c>
       <c r="H32" t="n">
         <v>599.9</v>
       </c>
       <c r="I32" t="n">
+        <v>600</v>
+      </c>
+      <c r="J32" t="n">
+        <v>599.9</v>
+      </c>
+      <c r="K32" t="n">
         <v>3107</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1060</v>
       </c>
     </row>
@@ -1544,27 +1740,33 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
         <v>4.91</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.1</v>
-      </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G33" t="n">
         <v>221.4</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="I33" t="n">
         <v>223.6</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>220.2</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>228</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1578,27 +1780,33 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>11</v>
+      </c>
+      <c r="D34" t="n">
         <v>4.9</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.2</v>
-      </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>157.74</v>
+      </c>
+      <c r="H34" t="n">
         <v>157.7</v>
       </c>
-      <c r="F34" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>159.1</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>156.9</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>218</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1612,27 +1820,33 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" t="n">
         <v>4.97</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>170.56</v>
+      </c>
+      <c r="H35" t="n">
         <v>170.6</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>171.2</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>170.2</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>180</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1646,27 +1860,33 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>26</v>
+      </c>
+      <c r="D36" t="n">
         <v>4.99</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.1</v>
-      </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>188.59</v>
+      </c>
+      <c r="H36" t="n">
         <v>188.6</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>188.9</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>188.3</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>213</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1680,27 +1900,33 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
         <v>2.26</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.01</v>
-      </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>599.62</v>
+      </c>
+      <c r="H37" t="n">
         <v>599.6</v>
       </c>
-      <c r="F37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>600.3</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>599.3</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>273</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>105</v>
       </c>
     </row>
@@ -1714,27 +1940,33 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>18</v>
+      </c>
+      <c r="D38" t="n">
         <v>4.99</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.02</v>
-      </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>508.06</v>
+      </c>
+      <c r="H38" t="n">
         <v>508.1</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>509.1</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>507.3</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>360</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1748,25 +1980,31 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" t="n">
         <v>4.31</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.04</v>
-      </c>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>249.71</v>
+      </c>
+      <c r="H39" t="n">
         <v>249.7</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>255</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>244.3</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,27 +2016,33 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>13</v>
+      </c>
+      <c r="D40" t="n">
         <v>2.74</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.11</v>
-      </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>113.97</v>
+      </c>
+      <c r="H40" t="n">
         <v>114</v>
       </c>
-      <c r="F40" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>116.8</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>111</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>67</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1812,27 +2056,33 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>23</v>
+      </c>
+      <c r="D41" t="n">
         <v>1.1</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.01</v>
-      </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>599.89</v>
+      </c>
+      <c r="H41" t="n">
         <v>599.9</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>600.1</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>599.8</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41" t="n">
         <v>450</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>160</v>
       </c>
     </row>

--- a/newwisedata/testssh_ans/mcmc6.xlsx
+++ b/newwisedata/testssh_ans/mcmc6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>eta</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>eta</t>
+          <t>pv</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>wf</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -461,30 +461,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pv</t>
+          <t>Dup</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Ddown</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Dup</t>
+          <t>D_wise</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Ddown</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>D_wise</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>D_wiseErr</t>
         </is>
@@ -500,33 +490,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>192.6</v>
       </c>
       <c r="F2" t="n">
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>192.63</v>
+        <v>192.9</v>
       </c>
       <c r="H2" t="n">
-        <v>192.6</v>
+        <v>192.4</v>
       </c>
       <c r="I2" t="n">
-        <v>192.9</v>
+        <v>193</v>
       </c>
       <c r="J2" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>193</v>
-      </c>
-      <c r="L2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -540,33 +524,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>2.6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6</v>
+        <v>0.05</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6</v>
       </c>
       <c r="F3" t="n">
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>139.61</v>
+        <v>140.4</v>
       </c>
       <c r="H3" t="n">
-        <v>139.6</v>
+        <v>138.9</v>
       </c>
       <c r="I3" t="n">
-        <v>140.4</v>
+        <v>208</v>
       </c>
       <c r="J3" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>208</v>
-      </c>
-      <c r="L3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -580,33 +558,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
       <c r="F4" t="n">
         <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>190.35</v>
+        <v>190.5</v>
       </c>
       <c r="H4" t="n">
-        <v>190.3</v>
+        <v>190.2</v>
       </c>
       <c r="I4" t="n">
-        <v>190.5</v>
+        <v>143</v>
       </c>
       <c r="J4" t="n">
-        <v>190.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>143</v>
-      </c>
-      <c r="L4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -620,33 +592,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>309.3</v>
       </c>
       <c r="F5" t="n">
         <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>309.33</v>
+        <v>309.5</v>
       </c>
       <c r="H5" t="n">
-        <v>309.3</v>
+        <v>309.2</v>
       </c>
       <c r="I5" t="n">
-        <v>309.5</v>
+        <v>390</v>
       </c>
       <c r="J5" t="n">
-        <v>309.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>390</v>
-      </c>
-      <c r="L5" t="n">
         <v>130</v>
       </c>
     </row>
@@ -660,33 +626,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>4.97</v>
       </c>
       <c r="D6" t="n">
-        <v>4.97</v>
+        <v>0.06</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>150.6</v>
       </c>
       <c r="F6" t="n">
         <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>150.56</v>
+        <v>151.2</v>
       </c>
       <c r="H6" t="n">
-        <v>150.6</v>
+        <v>150.1</v>
       </c>
       <c r="I6" t="n">
-        <v>151.2</v>
+        <v>111</v>
       </c>
       <c r="J6" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>111</v>
-      </c>
-      <c r="L6" t="n">
         <v>18</v>
       </c>
     </row>
@@ -700,33 +660,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>1.33</v>
       </c>
       <c r="D7" t="n">
-        <v>1.33</v>
+        <v>0.15</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1739.4</v>
       </c>
       <c r="F7" t="n">
         <v>0.057</v>
       </c>
       <c r="G7" t="n">
-        <v>1739.43</v>
+        <v>1763.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1739.4</v>
+        <v>1715</v>
       </c>
       <c r="I7" t="n">
-        <v>1763.1</v>
+        <v>2938</v>
       </c>
       <c r="J7" t="n">
-        <v>1715</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2938</v>
-      </c>
-      <c r="L7" t="n">
         <v>470</v>
       </c>
     </row>
@@ -740,33 +694,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>4.99</v>
       </c>
       <c r="D8" t="n">
-        <v>4.99</v>
+        <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>413.5</v>
       </c>
       <c r="F8" t="n">
         <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>413.51</v>
+        <v>414.1</v>
       </c>
       <c r="H8" t="n">
-        <v>413.5</v>
+        <v>413</v>
       </c>
       <c r="I8" t="n">
-        <v>414.1</v>
+        <v>352</v>
       </c>
       <c r="J8" t="n">
-        <v>413</v>
-      </c>
-      <c r="K8" t="n">
-        <v>352</v>
-      </c>
-      <c r="L8" t="n">
         <v>14</v>
       </c>
     </row>
@@ -780,33 +728,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>2.18</v>
       </c>
       <c r="D9" t="n">
-        <v>2.18</v>
+        <v>0.06</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>175.4</v>
       </c>
       <c r="F9" t="n">
         <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>175.45</v>
+        <v>179.3</v>
       </c>
       <c r="H9" t="n">
-        <v>175.4</v>
+        <v>171.7</v>
       </c>
       <c r="I9" t="n">
-        <v>179.3</v>
+        <v>242</v>
       </c>
       <c r="J9" t="n">
-        <v>171.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>242</v>
-      </c>
-      <c r="L9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -820,33 +762,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>366.3</v>
       </c>
       <c r="F10" t="n">
         <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>366.31</v>
+        <v>366.8</v>
       </c>
       <c r="H10" t="n">
-        <v>366.3</v>
+        <v>365.9</v>
       </c>
       <c r="I10" t="n">
-        <v>366.8</v>
+        <v>254</v>
       </c>
       <c r="J10" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>254</v>
-      </c>
-      <c r="L10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -860,33 +796,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>4.69</v>
       </c>
       <c r="D11" t="n">
-        <v>4.69</v>
+        <v>0.02</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>399.5</v>
       </c>
       <c r="F11" t="n">
         <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>399.47</v>
+        <v>403.5</v>
       </c>
       <c r="H11" t="n">
-        <v>399.5</v>
+        <v>395.4</v>
       </c>
       <c r="I11" t="n">
-        <v>403.5</v>
+        <v>382</v>
       </c>
       <c r="J11" t="n">
-        <v>395.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>382</v>
-      </c>
-      <c r="L11" t="n">
         <v>132</v>
       </c>
     </row>
@@ -900,33 +830,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>0.98</v>
       </c>
       <c r="D12" t="n">
-        <v>0.98</v>
+        <v>0.41</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>108.7</v>
       </c>
       <c r="F12" t="n">
         <v>0.2</v>
       </c>
       <c r="G12" t="n">
-        <v>108.67</v>
+        <v>109.8</v>
       </c>
       <c r="H12" t="n">
-        <v>108.7</v>
+        <v>107.5</v>
       </c>
       <c r="I12" t="n">
-        <v>109.8</v>
+        <v>315</v>
       </c>
       <c r="J12" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>315</v>
-      </c>
-      <c r="L12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -940,33 +864,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>2.12</v>
       </c>
       <c r="D13" t="n">
-        <v>2.12</v>
+        <v>0.03</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>384.8</v>
       </c>
       <c r="F13" t="n">
         <v>0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>384.77</v>
+        <v>390.2</v>
       </c>
       <c r="H13" t="n">
-        <v>384.8</v>
+        <v>379.4</v>
       </c>
       <c r="I13" t="n">
-        <v>390.2</v>
+        <v>628</v>
       </c>
       <c r="J13" t="n">
-        <v>379.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>628</v>
-      </c>
-      <c r="L13" t="n">
         <v>17</v>
       </c>
     </row>
@@ -980,33 +898,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>0.09</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>143.4</v>
       </c>
       <c r="F14" t="n">
         <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>143.41</v>
+        <v>143.5</v>
       </c>
       <c r="H14" t="n">
-        <v>143.4</v>
+        <v>143.3</v>
       </c>
       <c r="I14" t="n">
-        <v>143.5</v>
+        <v>97</v>
       </c>
       <c r="J14" t="n">
-        <v>143.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>97</v>
-      </c>
-      <c r="L14" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1020,33 +932,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>0.93</v>
       </c>
       <c r="D15" t="n">
-        <v>0.93</v>
+        <v>0.14</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>152.9</v>
       </c>
       <c r="F15" t="n">
         <v>0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>152.86</v>
+        <v>154.1</v>
       </c>
       <c r="H15" t="n">
-        <v>152.9</v>
+        <v>151.6</v>
       </c>
       <c r="I15" t="n">
-        <v>154.1</v>
+        <v>402</v>
       </c>
       <c r="J15" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>402</v>
-      </c>
-      <c r="L15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1060,33 +966,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>4.99</v>
       </c>
       <c r="D16" t="n">
-        <v>4.99</v>
+        <v>0.09</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>216.7</v>
       </c>
       <c r="F16" t="n">
         <v>0.2</v>
       </c>
       <c r="G16" t="n">
-        <v>216.66</v>
+        <v>217</v>
       </c>
       <c r="H16" t="n">
-        <v>216.7</v>
+        <v>216.4</v>
       </c>
       <c r="I16" t="n">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="J16" t="n">
-        <v>216.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>200</v>
-      </c>
-      <c r="L16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1100,33 +1000,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>4.9</v>
       </c>
       <c r="D17" t="n">
-        <v>4.9</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>161.9</v>
       </c>
       <c r="F17" t="n">
         <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>161.93</v>
+        <v>163.4</v>
       </c>
       <c r="H17" t="n">
-        <v>161.9</v>
+        <v>161</v>
       </c>
       <c r="I17" t="n">
-        <v>163.4</v>
+        <v>180</v>
       </c>
       <c r="J17" t="n">
-        <v>161</v>
-      </c>
-      <c r="K17" t="n">
-        <v>180</v>
-      </c>
-      <c r="L17" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1140,33 +1034,27 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>4.98</v>
       </c>
       <c r="D18" t="n">
-        <v>4.98</v>
+        <v>0.06</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>264.4</v>
       </c>
       <c r="F18" t="n">
         <v>0.2</v>
       </c>
       <c r="G18" t="n">
-        <v>264.42</v>
+        <v>265.1</v>
       </c>
       <c r="H18" t="n">
-        <v>264.4</v>
+        <v>263.9</v>
       </c>
       <c r="I18" t="n">
-        <v>265.1</v>
+        <v>203</v>
       </c>
       <c r="J18" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>203</v>
-      </c>
-      <c r="L18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1180,33 +1068,27 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>4.97</v>
       </c>
       <c r="D19" t="n">
-        <v>4.97</v>
+        <v>0.02</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>464.9</v>
       </c>
       <c r="F19" t="n">
         <v>0.2</v>
       </c>
       <c r="G19" t="n">
-        <v>464.85</v>
+        <v>467</v>
       </c>
       <c r="H19" t="n">
-        <v>464.9</v>
+        <v>463.5</v>
       </c>
       <c r="I19" t="n">
-        <v>467</v>
+        <v>352</v>
       </c>
       <c r="J19" t="n">
-        <v>463.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>352</v>
-      </c>
-      <c r="L19" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1220,33 +1102,27 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>4.97</v>
       </c>
       <c r="D20" t="n">
-        <v>4.97</v>
+        <v>0.1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F20" t="n">
         <v>0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>79.97</v>
+        <v>80.3</v>
       </c>
       <c r="H20" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="I20" t="n">
-        <v>80.3</v>
+        <v>64</v>
       </c>
       <c r="J20" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>64</v>
-      </c>
-      <c r="L20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1260,33 +1136,27 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>0.04</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>220.2</v>
       </c>
       <c r="F21" t="n">
         <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>220.15</v>
+        <v>220.5</v>
       </c>
       <c r="H21" t="n">
-        <v>220.2</v>
+        <v>219.8</v>
       </c>
       <c r="I21" t="n">
-        <v>220.5</v>
+        <v>140</v>
       </c>
       <c r="J21" t="n">
-        <v>219.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>140</v>
-      </c>
-      <c r="L21" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1300,33 +1170,27 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>155.9</v>
       </c>
       <c r="F22" t="n">
         <v>0.2</v>
       </c>
       <c r="G22" t="n">
-        <v>155.87</v>
+        <v>156.1</v>
       </c>
       <c r="H22" t="n">
-        <v>155.9</v>
+        <v>155.6</v>
       </c>
       <c r="I22" t="n">
-        <v>156.1</v>
+        <v>214</v>
       </c>
       <c r="J22" t="n">
-        <v>155.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>214</v>
-      </c>
-      <c r="L22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1340,33 +1204,27 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>1.34</v>
       </c>
       <c r="D23" t="n">
-        <v>1.34</v>
+        <v>0.24</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1432.9</v>
       </c>
       <c r="F23" t="n">
         <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>1432.9</v>
+        <v>1452.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1432.9</v>
+        <v>1413.3</v>
       </c>
       <c r="I23" t="n">
-        <v>1452.5</v>
+        <v>2877</v>
       </c>
       <c r="J23" t="n">
-        <v>1413.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2877</v>
-      </c>
-      <c r="L23" t="n">
         <v>207</v>
       </c>
     </row>
@@ -1380,33 +1238,27 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>4.98</v>
       </c>
       <c r="D24" t="n">
-        <v>4.98</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>105.8</v>
       </c>
       <c r="F24" t="n">
         <v>0.2</v>
       </c>
       <c r="G24" t="n">
-        <v>105.76</v>
+        <v>106.1</v>
       </c>
       <c r="H24" t="n">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="I24" t="n">
-        <v>106.1</v>
+        <v>87</v>
       </c>
       <c r="J24" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>87</v>
-      </c>
-      <c r="L24" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1420,33 +1272,27 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>0.13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.4</v>
       </c>
       <c r="F25" t="n">
         <v>0.2</v>
       </c>
       <c r="G25" t="n">
-        <v>133.43</v>
+        <v>133.6</v>
       </c>
       <c r="H25" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="I25" t="n">
-        <v>133.6</v>
+        <v>102</v>
       </c>
       <c r="J25" t="n">
-        <v>133.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>102</v>
-      </c>
-      <c r="L25" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1460,33 +1306,27 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>0.04</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F26" t="n">
         <v>0.2</v>
       </c>
       <c r="G26" t="n">
-        <v>599.95</v>
+        <v>600.1</v>
       </c>
       <c r="H26" t="n">
-        <v>600</v>
+        <v>599.9</v>
       </c>
       <c r="I26" t="n">
-        <v>600.1</v>
+        <v>212</v>
       </c>
       <c r="J26" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>212</v>
-      </c>
-      <c r="L26" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1500,33 +1340,27 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4.91</v>
       </c>
       <c r="D27" t="n">
-        <v>4.91</v>
+        <v>0.16</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>125.3</v>
       </c>
       <c r="F27" t="n">
         <v>0.2</v>
       </c>
       <c r="G27" t="n">
-        <v>125.32</v>
+        <v>126.6</v>
       </c>
       <c r="H27" t="n">
-        <v>125.3</v>
+        <v>124.6</v>
       </c>
       <c r="I27" t="n">
-        <v>126.6</v>
+        <v>101</v>
       </c>
       <c r="J27" t="n">
-        <v>124.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>101</v>
-      </c>
-      <c r="L27" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1540,33 +1374,27 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>4.99</v>
       </c>
       <c r="D28" t="n">
-        <v>4.99</v>
+        <v>0.02</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>307.2</v>
       </c>
       <c r="F28" t="n">
         <v>0.2</v>
       </c>
       <c r="G28" t="n">
-        <v>307.22</v>
+        <v>307.7</v>
       </c>
       <c r="H28" t="n">
-        <v>307.2</v>
+        <v>306.8</v>
       </c>
       <c r="I28" t="n">
-        <v>307.7</v>
+        <v>193</v>
       </c>
       <c r="J28" t="n">
-        <v>306.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>193</v>
-      </c>
-      <c r="L28" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1580,33 +1408,27 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>4.95</v>
       </c>
       <c r="D29" t="n">
-        <v>4.95</v>
+        <v>0.03</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>244.7</v>
       </c>
       <c r="F29" t="n">
         <v>0.2</v>
       </c>
       <c r="G29" t="n">
-        <v>244.69</v>
+        <v>246.1</v>
       </c>
       <c r="H29" t="n">
-        <v>244.7</v>
+        <v>243.8</v>
       </c>
       <c r="I29" t="n">
-        <v>246.1</v>
+        <v>236</v>
       </c>
       <c r="J29" t="n">
-        <v>243.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>236</v>
-      </c>
-      <c r="L29" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1620,33 +1442,27 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>4.96</v>
       </c>
       <c r="D30" t="n">
-        <v>4.96</v>
+        <v>0.03</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="F30" t="n">
         <v>0.2</v>
       </c>
       <c r="G30" t="n">
-        <v>218.05</v>
+        <v>219.2</v>
       </c>
       <c r="H30" t="n">
-        <v>218</v>
+        <v>217.4</v>
       </c>
       <c r="I30" t="n">
-        <v>219.2</v>
+        <v>153</v>
       </c>
       <c r="J30" t="n">
-        <v>217.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>153</v>
-      </c>
-      <c r="L30" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1660,33 +1476,27 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>0.02</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>277.9</v>
       </c>
       <c r="F31" t="n">
         <v>0.2</v>
       </c>
       <c r="G31" t="n">
-        <v>277.87</v>
+        <v>278.3</v>
       </c>
       <c r="H31" t="n">
-        <v>277.9</v>
+        <v>277.4</v>
       </c>
       <c r="I31" t="n">
-        <v>278.3</v>
+        <v>234</v>
       </c>
       <c r="J31" t="n">
-        <v>277.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>234</v>
-      </c>
-      <c r="L31" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1700,33 +1510,27 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>0.02</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>599.9</v>
       </c>
       <c r="F32" t="n">
         <v>0.057</v>
       </c>
       <c r="G32" t="n">
-        <v>599.95</v>
+        <v>600</v>
       </c>
       <c r="H32" t="n">
         <v>599.9</v>
       </c>
       <c r="I32" t="n">
-        <v>600</v>
+        <v>3107</v>
       </c>
       <c r="J32" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3107</v>
-      </c>
-      <c r="L32" t="n">
         <v>1060</v>
       </c>
     </row>
@@ -1740,33 +1544,27 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>4.91</v>
       </c>
       <c r="D33" t="n">
-        <v>4.91</v>
+        <v>0.1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>221.4</v>
       </c>
       <c r="F33" t="n">
         <v>0.2</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4</v>
+        <v>223.6</v>
       </c>
       <c r="H33" t="n">
-        <v>221.4</v>
+        <v>220.2</v>
       </c>
       <c r="I33" t="n">
-        <v>223.6</v>
+        <v>228</v>
       </c>
       <c r="J33" t="n">
-        <v>220.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>228</v>
-      </c>
-      <c r="L33" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1780,33 +1578,27 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11</v>
+        <v>4.9</v>
       </c>
       <c r="D34" t="n">
-        <v>4.9</v>
+        <v>0.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>157.7</v>
       </c>
       <c r="F34" t="n">
         <v>0.2</v>
       </c>
       <c r="G34" t="n">
-        <v>157.74</v>
+        <v>159.1</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7</v>
+        <v>156.9</v>
       </c>
       <c r="I34" t="n">
-        <v>159.1</v>
+        <v>218</v>
       </c>
       <c r="J34" t="n">
-        <v>156.9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>218</v>
-      </c>
-      <c r="L34" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1820,33 +1612,27 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>4.97</v>
       </c>
       <c r="D35" t="n">
-        <v>4.97</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>170.6</v>
       </c>
       <c r="F35" t="n">
         <v>0.2</v>
       </c>
       <c r="G35" t="n">
-        <v>170.56</v>
+        <v>171.2</v>
       </c>
       <c r="H35" t="n">
-        <v>170.6</v>
+        <v>170.2</v>
       </c>
       <c r="I35" t="n">
-        <v>171.2</v>
+        <v>180</v>
       </c>
       <c r="J35" t="n">
-        <v>170.2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>180</v>
-      </c>
-      <c r="L35" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1860,33 +1646,27 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>4.99</v>
       </c>
       <c r="D36" t="n">
-        <v>4.99</v>
+        <v>0.1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>188.6</v>
       </c>
       <c r="F36" t="n">
         <v>0.2</v>
       </c>
       <c r="G36" t="n">
-        <v>188.59</v>
+        <v>188.9</v>
       </c>
       <c r="H36" t="n">
-        <v>188.6</v>
+        <v>188.3</v>
       </c>
       <c r="I36" t="n">
-        <v>188.9</v>
+        <v>213</v>
       </c>
       <c r="J36" t="n">
-        <v>188.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>213</v>
-      </c>
-      <c r="L36" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1900,33 +1680,27 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2.26</v>
       </c>
       <c r="D37" t="n">
-        <v>2.26</v>
+        <v>0.01</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>599.6</v>
       </c>
       <c r="F37" t="n">
         <v>0.2</v>
       </c>
       <c r="G37" t="n">
-        <v>599.62</v>
+        <v>600.3</v>
       </c>
       <c r="H37" t="n">
-        <v>599.6</v>
+        <v>599.3</v>
       </c>
       <c r="I37" t="n">
-        <v>600.3</v>
+        <v>273</v>
       </c>
       <c r="J37" t="n">
-        <v>599.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>273</v>
-      </c>
-      <c r="L37" t="n">
         <v>105</v>
       </c>
     </row>
@@ -1940,33 +1714,27 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>4.99</v>
       </c>
       <c r="D38" t="n">
-        <v>4.99</v>
+        <v>0.02</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>508.1</v>
       </c>
       <c r="F38" t="n">
         <v>0.2</v>
       </c>
       <c r="G38" t="n">
-        <v>508.06</v>
+        <v>509.1</v>
       </c>
       <c r="H38" t="n">
-        <v>508.1</v>
+        <v>507.3</v>
       </c>
       <c r="I38" t="n">
-        <v>509.1</v>
+        <v>360</v>
       </c>
       <c r="J38" t="n">
-        <v>507.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>360</v>
-      </c>
-      <c r="L38" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1980,31 +1748,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>4.31</v>
       </c>
       <c r="D39" t="n">
-        <v>4.31</v>
+        <v>0.04</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>249.7</v>
       </c>
       <c r="F39" t="n">
         <v>0.2</v>
       </c>
       <c r="G39" t="n">
-        <v>249.71</v>
+        <v>255</v>
       </c>
       <c r="H39" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="I39" t="n">
-        <v>255</v>
-      </c>
-      <c r="J39" t="n">
         <v>244.3</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2016,33 +1778,27 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>13</v>
+        <v>2.74</v>
       </c>
       <c r="D40" t="n">
-        <v>2.74</v>
+        <v>0.11</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F40" t="n">
         <v>0.2</v>
       </c>
       <c r="G40" t="n">
-        <v>113.97</v>
+        <v>116.8</v>
       </c>
       <c r="H40" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I40" t="n">
-        <v>116.8</v>
+        <v>67</v>
       </c>
       <c r="J40" t="n">
-        <v>111</v>
-      </c>
-      <c r="K40" t="n">
-        <v>67</v>
-      </c>
-      <c r="L40" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2056,33 +1812,27 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>1.1</v>
       </c>
       <c r="D41" t="n">
-        <v>1.1</v>
+        <v>0.01</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>599.9</v>
       </c>
       <c r="F41" t="n">
         <v>0.2</v>
       </c>
       <c r="G41" t="n">
-        <v>599.89</v>
+        <v>600.1</v>
       </c>
       <c r="H41" t="n">
-        <v>599.9</v>
+        <v>599.8</v>
       </c>
       <c r="I41" t="n">
-        <v>600.1</v>
+        <v>450</v>
       </c>
       <c r="J41" t="n">
-        <v>599.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>450</v>
-      </c>
-      <c r="L41" t="n">
         <v>160</v>
       </c>
     </row>

--- a/newwisedata/testssh_ans/mcmc6.xlsx
+++ b/newwisedata/testssh_ans/mcmc6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>eta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pv</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pv_wise</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pv_wise</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Dup</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ddown</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>D_wise</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>D_wiseErr</t>
         </is>
@@ -490,27 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.13</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
         <v>192.6</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>192.9</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>192.4</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>193</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -524,27 +532,30 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.05</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="n">
         <v>139.6</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>140.4</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>138.9</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>208</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,27 +569,30 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>190.3</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>190.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>190.2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>143</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -592,27 +606,30 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>130</v>
+      </c>
+      <c r="D5" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.05</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="n">
         <v>309.3</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>309.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>309.2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>390</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>130</v>
       </c>
     </row>
@@ -626,27 +643,30 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
         <v>4.97</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.06</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="n">
         <v>150.6</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>151.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>150.1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>111</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>18</v>
       </c>
     </row>
@@ -660,27 +680,30 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.33</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.15</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1739.4</v>
       </c>
       <c r="F7" t="n">
         <v>0.057</v>
       </c>
       <c r="G7" t="n">
+        <v>1739.4</v>
+      </c>
+      <c r="H7" t="n">
         <v>1763.1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>1715</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>2938</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>470</v>
       </c>
     </row>
@@ -694,27 +717,30 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>46</v>
+      </c>
+      <c r="D8" t="n">
         <v>4.99</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.01</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="n">
         <v>413.5</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>414.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>413</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>352</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>14</v>
       </c>
     </row>
@@ -728,27 +754,30 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.06</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="n">
         <v>175.4</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>179.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>171.7</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>242</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,27 +791,30 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.01</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="n">
         <v>366.3</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>366.8</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>365.9</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>254</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -796,27 +828,30 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>32</v>
+      </c>
+      <c r="D11" t="n">
         <v>4.69</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.02</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="n">
         <v>399.5</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>403.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>395.4</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>382</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>132</v>
       </c>
     </row>
@@ -830,27 +865,30 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.98</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.41</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>108.7</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>109.8</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>107.5</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>315</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -864,27 +902,30 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
         <v>2.12</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.03</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="n">
         <v>384.8</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>390.2</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>379.4</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>628</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>17</v>
       </c>
     </row>
@@ -898,27 +939,30 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>148</v>
+      </c>
+      <c r="D14" t="n">
         <v>5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.09</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="n">
         <v>143.4</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>143.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>143.3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>97</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>16</v>
       </c>
     </row>
@@ -932,27 +976,30 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.93</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.14</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="n">
         <v>152.9</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>154.1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>151.6</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>402</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -966,27 +1013,30 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>41</v>
+      </c>
+      <c r="D16" t="n">
         <v>4.99</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.09</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="n">
         <v>216.7</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>217</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>216.4</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>200</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1000,27 +1050,30 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>32</v>
+      </c>
+      <c r="D17" t="n">
         <v>4.9</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>161.9</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>163.4</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>161</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>180</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1034,27 +1087,30 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
         <v>4.98</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.06</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="n">
         <v>264.4</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>265.1</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>263.9</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>203</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1068,27 +1124,30 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
         <v>4.97</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.02</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G19" t="n">
         <v>464.9</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>467</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>463.5</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>352</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1102,27 +1161,30 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" t="n">
         <v>4.97</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.1</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G20" t="n">
         <v>80</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>80.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>79.8</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>64</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1136,27 +1198,30 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" t="n">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.04</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="n">
         <v>220.2</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>220.5</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>219.8</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>140</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1170,27 +1235,30 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" t="n">
         <v>5</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.2</v>
-      </c>
       <c r="E22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="n">
         <v>155.9</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>156.1</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>155.6</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>214</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1204,27 +1272,30 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>18</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.34</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>0.24</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="n">
         <v>1432.9</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>1452.5</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>1413.3</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>2877</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>207</v>
       </c>
     </row>
@@ -1238,27 +1309,30 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
         <v>4.98</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G24" t="n">
         <v>105.8</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>106.1</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>105.4</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>87</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1272,27 +1346,30 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>32</v>
+      </c>
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>0.13</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="n">
         <v>133.4</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>133.6</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>133.3</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>102</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1306,27 +1383,30 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.04</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>0.01</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="n">
         <v>600</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>600.1</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>599.9</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>212</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1340,27 +1420,30 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
         <v>4.91</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>0.16</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G27" t="n">
         <v>125.3</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>126.6</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>124.6</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>101</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1374,27 +1457,30 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" t="n">
         <v>4.99</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>0.02</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G28" t="n">
         <v>307.2</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>307.7</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>306.8</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>193</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1408,27 +1494,30 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" t="n">
         <v>4.95</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.03</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G29" t="n">
         <v>244.7</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>246.1</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>243.8</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>236</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1442,27 +1531,30 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>14</v>
+      </c>
+      <c r="D30" t="n">
         <v>4.96</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>0.03</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G30" t="n">
         <v>218</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>219.2</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>217.4</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>153</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1476,27 +1568,30 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>17</v>
+      </c>
+      <c r="D31" t="n">
         <v>5</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>0.02</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G31" t="n">
         <v>277.9</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>278.3</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>277.4</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>234</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1510,27 +1605,30 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>13</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.02</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>599.9</v>
       </c>
       <c r="F32" t="n">
         <v>0.057</v>
       </c>
       <c r="G32" t="n">
+        <v>599.9</v>
+      </c>
+      <c r="H32" t="n">
         <v>600</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>599.9</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>3107</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>1060</v>
       </c>
     </row>
@@ -1544,27 +1642,30 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
         <v>4.91</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>0.1</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G33" t="n">
         <v>221.4</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>223.6</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>220.2</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>228</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1578,27 +1679,30 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>11</v>
+      </c>
+      <c r="D34" t="n">
         <v>4.9</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.2</v>
-      </c>
       <c r="E34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G34" t="n">
         <v>157.7</v>
       </c>
-      <c r="F34" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>159.1</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>156.9</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>218</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1612,27 +1716,30 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" t="n">
         <v>4.97</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G35" t="n">
         <v>170.6</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>171.2</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>170.2</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>180</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1646,27 +1753,30 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>26</v>
+      </c>
+      <c r="D36" t="n">
         <v>4.99</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>0.1</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G36" t="n">
         <v>188.6</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>188.9</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>188.3</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>213</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1680,27 +1790,30 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
         <v>2.26</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>0.01</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G37" t="n">
         <v>599.6</v>
       </c>
-      <c r="F37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>600.3</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>599.3</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>273</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>105</v>
       </c>
     </row>
@@ -1714,27 +1827,30 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>18</v>
+      </c>
+      <c r="D38" t="n">
         <v>4.99</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>0.02</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G38" t="n">
         <v>508.1</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>509.1</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>507.3</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>360</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1748,25 +1864,28 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" t="n">
         <v>4.31</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>0.04</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G39" t="n">
         <v>249.7</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>255</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>244.3</v>
       </c>
-      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,27 +1897,30 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>13</v>
+      </c>
+      <c r="D40" t="n">
         <v>2.74</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>0.11</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G40" t="n">
         <v>114</v>
       </c>
-      <c r="F40" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>116.8</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>111</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>67</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1812,27 +1934,30 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>23</v>
+      </c>
+      <c r="D41" t="n">
         <v>1.1</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>0.01</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G41" t="n">
         <v>599.9</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>600.1</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>599.8</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>450</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>160</v>
       </c>
     </row>
